--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Bordeaux/Centre_hospitalier_universitaire_de_Bordeaux.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Bordeaux/Centre_hospitalier_universitaire_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre hospitalier universitaire de Bordeaux se place en 2018 au second rang des CHU français en termes d’activité[1]. D'une capacité totale de 3 070 lits et places, il constitue le principal complexe hospitalier de l'agglomération bordelaise et de la région Nouvelle-Aquitaine. Employant un total de 14 049 personnes, le CHU de Bordeaux demeure le premier employeur de la région. Son budget annuel de fonctionnement s'élève à près d'un milliard d'euros[2].
+Le centre hospitalier universitaire de Bordeaux se place en 2018 au second rang des CHU français en termes d’activité. D'une capacité totale de 3 070 lits et places, il constitue le principal complexe hospitalier de l'agglomération bordelaise et de la région Nouvelle-Aquitaine. Employant un total de 14 049 personnes, le CHU de Bordeaux demeure le premier employeur de la région. Son budget annuel de fonctionnement s'élève à près d'un milliard d'euros.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHU de Bordeaux est l'un des sites français de référence concernant les prises en charge spécialisées de haute technicité telles que les transplantations d'organes, traitement des grands brûlés ou la chirurgie cardiaque. Il est le siège du groupement interrégional de recherche clinique et d'innovation Sud-Ouest Outre-Mer (GIRCI SOOM), qui associe les CHU de Bordeaux, Toulouse, Limoges, Pointe-à-Pitre, Martinique  et La Réunion ainsi que les centres régionaux de lutte contre le cancer, l'Institut Bergonié à Bordeaux et l'Institut Claudius-Regaud à Toulouse. 
 Le CHU de Bordeaux est aussi acteur d'une coopération internationale avec des hôpitaux d'Espagne, du Québec, d'Arabie saoudite ou encore de Côte d'Ivoire.
-En 2016, le magazine Le Point lui attribue la première place nationale dans son classement des établissements hospitaliers[3].
+En 2016, le magazine Le Point lui attribue la première place nationale dans son classement des établissements hospitaliers.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHU est formé de trois structures hospitalières réparties au sein de Bordeaux Métropole :  
 Groupe hospitalier Pellegrin :
@@ -624,9 +642,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faculté de médecine et de pharmacie
-UFRs des sciences médicales, pharmaceutiques et odontologiques[4].
-Les sites hospitaliers du CHU de Bordeaux participent à la formation médicale[5], chirurgicale, pharmaceutique et odontologique de la région ainsi qu’à la recherche fondamentale en liaison avec les unités INSERM et CNRS.
+          <t>Faculté de médecine et de pharmacie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UFRs des sciences médicales, pharmaceutiques et odontologiques.
+Les sites hospitaliers du CHU de Bordeaux participent à la formation médicale, chirurgicale, pharmaceutique et odontologique de la région ainsi qu’à la recherche fondamentale en liaison avec les unités INSERM et CNRS.
 Le pôle formation du CHU de Bordeaux comprend une école de sages-femmes lié à l'université de Bordeaux. Il est constitué de 14 instituts de formation.
 </t>
         </is>
@@ -656,7 +679,9 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ancien logo.
